--- a/outputs/2023/metric_full_rel-202302.xlsx
+++ b/outputs/2023/metric_full_rel-202302.xlsx
@@ -397,10 +397,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>33.47</v>
+        <v>28.28</v>
       </c>
       <c r="E2">
-        <v>31.42</v>
+        <v>20.63</v>
       </c>
     </row>
   </sheetData>
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -456,12 +456,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C2">
@@ -474,21 +474,21 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.08</v>
+        <v>17.39</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C3">
@@ -501,21 +501,21 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.09</v>
+        <v>27.27</v>
       </c>
       <c r="G3">
-        <v>43.48</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C4">
@@ -528,21 +528,21 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.42</v>
+        <v>15.79</v>
       </c>
       <c r="G4">
-        <v>21.21</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C5">
@@ -555,21 +555,21 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G5">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C6">
@@ -582,21 +582,21 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C7">
@@ -609,21 +609,21 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G7">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C8">
@@ -636,21 +636,21 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C9">
@@ -663,21 +663,21 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>54.55</v>
+        <v>16.67</v>
       </c>
       <c r="G9">
-        <v>45.45</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C10">
@@ -690,21 +690,21 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C11">
@@ -717,21 +717,21 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.21</v>
+        <v>37.5</v>
       </c>
       <c r="G11">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C12">
@@ -744,21 +744,21 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G12">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C13">
@@ -771,21 +771,21 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G13">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C14">
@@ -798,21 +798,21 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G14">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C15">
@@ -825,21 +825,21 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G15">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C16">
@@ -852,21 +852,21 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>16.67</v>
+        <v>25</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C17">
@@ -879,21 +879,21 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G17">
-        <v>2.78</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C18">
@@ -906,21 +906,21 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.09</v>
+        <v>27.27</v>
       </c>
       <c r="G18">
-        <v>54.55</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C19">
@@ -933,21 +933,21 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.25</v>
+        <v>20</v>
       </c>
       <c r="G19">
-        <v>56.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C20">
@@ -960,21 +960,21 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>46.67</v>
       </c>
       <c r="G20">
-        <v>28.85</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C21">
@@ -987,21 +987,21 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.27</v>
+        <v>50</v>
       </c>
       <c r="G21">
-        <v>54.55</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C22">
@@ -1014,21 +1014,21 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22">
         <v>50</v>
-      </c>
-      <c r="G22">
-        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C23">
@@ -1041,21 +1041,21 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>60</v>
+        <v>30.3</v>
       </c>
       <c r="G23">
-        <v>26.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C24">
@@ -1068,21 +1068,21 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G24">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C25">
@@ -1095,21 +1095,21 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C26">
@@ -1122,21 +1122,21 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>51.52</v>
+        <v>42.42</v>
       </c>
       <c r="G26">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C27">
@@ -1149,21 +1149,21 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C28">
@@ -1176,118 +1176,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C29">
-        <v>2023</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>33.33</v>
-      </c>
-      <c r="G29">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C30">
-        <v>2023</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>7.69</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C31">
-        <v>2023</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>29.33</v>
-      </c>
-      <c r="G31">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C32">
-        <v>2023</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>39.13</v>
-      </c>
-      <c r="G32">
-        <v>13.04</v>
+        <v>4.35</v>
       </c>
     </row>
   </sheetData>
@@ -1351,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F2">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="3">
@@ -1373,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>33.93</v>
+        <v>29.46</v>
       </c>
       <c r="F3">
-        <v>40.18</v>
+        <v>27.68</v>
       </c>
     </row>
   </sheetData>
